--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1495553.644732495</v>
+        <v>1493218.533530515</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>65.5597462344509</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0.8165095851522483</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -826,13 +826,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>20.4181488226509</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -865,25 +865,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>43.30112502764913</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>301.8956584665302</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>37.80655536594504</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,7 +1060,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>21.4110762824733</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1102,25 +1102,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>155.4010654756821</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>251.2852794514161</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>186.6141597285339</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>41.74133133758817</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>235.908211050859</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>102.9630220374181</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,13 +1901,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>79.0585636675447</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>9.146142788179874</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,13 +2530,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,10 +2716,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>159.6155901915581</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2843,7 +2843,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>63.34420421319582</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.295034370328</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>26.13627195705825</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>41.02686156549823</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>100.9025715636462</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,16 +3661,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>27.77749086859484</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,13 +3715,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>142.3575218158277</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>9.14614278817986</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>918.0161179218651</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="C2" t="n">
-        <v>549.0536009814534</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="D2" t="n">
-        <v>190.7879023747029</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E2" t="n">
-        <v>190.7879023747029</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>183.8424016254995</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4331,10 +4331,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2561.514571243436</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2561.514571243436</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2307.933510507616</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1976.870623164045</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1624.101967893931</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218651</v>
+        <v>1250.636209632851</v>
       </c>
       <c r="Y2" t="n">
-        <v>918.0161179218651</v>
+        <v>860.4968776570395</v>
       </c>
     </row>
     <row r="3">
@@ -4395,40 +4395,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
         <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>793.4311400478917</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>624.4949571199849</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>474.3783177076491</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>326.465224125256</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>326.465224125256</v>
       </c>
       <c r="G4" t="n">
         <v>305.8408313751036</v>
@@ -4486,52 +4486,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.862713590079</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="V4" t="n">
-        <v>1533.862713590079</v>
+        <v>793.4311400478917</v>
       </c>
       <c r="W4" t="n">
-        <v>1533.862713590079</v>
+        <v>793.4311400478917</v>
       </c>
       <c r="X4" t="n">
-        <v>1490.124203461141</v>
+        <v>793.4311400478917</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>793.4311400478917</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1249.246750862032</v>
+        <v>1511.231752124757</v>
       </c>
       <c r="C5" t="n">
-        <v>880.2842339216199</v>
+        <v>1511.231752124757</v>
       </c>
       <c r="D5" t="n">
-        <v>522.0185353148695</v>
+        <v>1152.966053518007</v>
       </c>
       <c r="E5" t="n">
-        <v>136.2302827166252</v>
+        <v>767.1778009197624</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674217</v>
+        <v>356.1918961301548</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926626</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W5" t="n">
-        <v>2399.451681163045</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="X5" t="n">
-        <v>2025.985922901965</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="Y5" t="n">
-        <v>1635.846590926153</v>
+        <v>1897.831592188879</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4641,31 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1489515180662</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>821.9680821844933</v>
+        <v>1057.327935297104</v>
       </c>
       <c r="M6" t="n">
-        <v>1456.147065963532</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560477</v>
+        <v>1807.87508285327</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>706.8033708781536</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>537.8671879502467</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>387.750548537911</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
         <v>366.1231987576349</v>
@@ -4714,25 +4714,25 @@
         <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.233965749941</v>
+        <v>1376.89194038232</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.233965749941</v>
+        <v>1087.773602886158</v>
       </c>
       <c r="V7" t="n">
-        <v>1337.233965749941</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="W7" t="n">
-        <v>1337.233965749941</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="X7" t="n">
-        <v>1109.244414851923</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="Y7" t="n">
-        <v>888.4518357083933</v>
+        <v>833.0891146802707</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1844.338003964587</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C8" t="n">
-        <v>1475.375487024176</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1117.109788417425</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>731.321535819181</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>320.3356310295734</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4814,16 +4814,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4835,19 +4835,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3137.106670368228</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>3137.106670368228</v>
       </c>
       <c r="W8" t="n">
-        <v>2994.542934265601</v>
+        <v>3137.106670368228</v>
       </c>
       <c r="X8" t="n">
-        <v>2621.077176004521</v>
+        <v>2763.640912107148</v>
       </c>
       <c r="Y8" t="n">
-        <v>2230.937844028709</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="9">
@@ -4875,19 +4875,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4896,7 +4896,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4993,19 +4993,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703794</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969311</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>784.5811134804959</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C13" t="n">
-        <v>615.644930552589</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402533</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2404.800122633203</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2221.945288288107</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2002.343823311048</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1713.268596655246</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1458.584108449359</v>
       </c>
       <c r="W13" t="n">
-        <v>1415.011708352283</v>
+        <v>1169.166938412398</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.022157454266</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y13" t="n">
-        <v>966.2295783107356</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="14">
@@ -5255,34 +5255,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,34 +5291,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>803.2707707770328</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>634.3345878491259</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.711814750803</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>984.9192356072725</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,7 +5525,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,10 +5549,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>615.644930552589</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>615.644930552589</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>465.5282911402533</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5732,31 +5732,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
@@ -5765,10 +5765,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5829,19 +5829,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5887,22 +5887,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5978,22 +5978,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6078,10 +6078,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597624</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597624</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>244.7670222746423</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>103.0551911168404</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6221,19 +6221,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6315,10 +6315,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.6905094135296</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1816.233211630147</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1561.54872342426</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1272.131553387299</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.131553387299</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.338974243769</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6458,19 +6458,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6540,19 +6540,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400726</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121657</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121657</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121657</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121657</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487569</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.46108051051</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.28419561186</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138424</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703123</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="32">
@@ -6680,34 +6680,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,52 +6923,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>632.7243904253733</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>632.7243904253733</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253733</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y37" t="n">
-        <v>814.372855255613</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
@@ -7160,64 +7160,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>352.5519571452613</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>948.5505208511905</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>779.6143379232836</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1833.665603928865</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1578.981115722978</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1578.981115722978</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1350.99156482496</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>1130.19898568143</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,19 +7421,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>244.7670222746423</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>103.0551911168404</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -8061,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>294.8344935184735</v>
+        <v>186.5911984019046</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,16 +8298,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>105.1672460959145</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>60.50016306149541</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>24.63391537253347</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>50.61478728573201</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>45.65245098079421</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23701,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23789,13 +23789,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100.7734165143926</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>72.11969353038565</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,13 +24418,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>40.64330621514819</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>126.5688841976861</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>85.27126880501653</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194085</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24932,7 +24932,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>176.37858876179</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>117.6820817884485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,16 +25549,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986324</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>118.6564717779743</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,13 +25603,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>143.8269525734164</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>72.11969353038566</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>915969.1961964172</v>
+        <v>915969.1961964171</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>915969.1961964173</v>
+        <v>915969.1961964172</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>915969.1961964172</v>
+        <v>915969.1961964171</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>915969.1961964172</v>
+        <v>915969.1961964173</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>915969.1961964171</v>
+        <v>915969.1961964173</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>915969.1961964172</v>
+        <v>915969.1961964171</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>915969.1961964172</v>
+        <v>915969.1961964171</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>915969.1961964172</v>
+        <v>915969.1961964171</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="F2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="G2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>504466.6248062538</v>
-      </c>
-      <c r="G2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="H2" t="n">
-        <v>504466.6248062537</v>
       </c>
       <c r="I2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="K2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="L2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="P2" t="n">
         <v>504466.6248062538</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099826</v>
@@ -26396,7 +26396,7 @@
         <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
         <v>87914.29116309554</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="G4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>8727.256391744282</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8727.256391744284</v>
       </c>
       <c r="I4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744295</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744295</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26522,46 +26522,46 @@
         <v>-830060.5868275703</v>
       </c>
       <c r="C6" t="n">
-        <v>284691.1967483489</v>
+        <v>284691.1967483493</v>
       </c>
       <c r="D6" t="n">
-        <v>124675.7340003504</v>
+        <v>124675.7340003503</v>
       </c>
       <c r="E6" t="n">
-        <v>69204.37678324751</v>
+        <v>69169.63885781096</v>
       </c>
       <c r="F6" t="n">
-        <v>394616.8385906022</v>
+        <v>394582.1006651665</v>
       </c>
       <c r="G6" t="n">
-        <v>394616.8385906022</v>
+        <v>394582.1006651667</v>
       </c>
       <c r="H6" t="n">
-        <v>394616.8385906023</v>
+        <v>394582.1006651668</v>
       </c>
       <c r="I6" t="n">
-        <v>394616.8385906022</v>
+        <v>394582.1006651666</v>
       </c>
       <c r="J6" t="n">
-        <v>227011.6607806198</v>
+        <v>226976.9228551839</v>
       </c>
       <c r="K6" t="n">
-        <v>394616.8385906024</v>
+        <v>394582.1006651666</v>
       </c>
       <c r="L6" t="n">
-        <v>346322.8685824114</v>
+        <v>346288.1306569757</v>
       </c>
       <c r="M6" t="n">
-        <v>309561.8106550907</v>
+        <v>309527.0727296547</v>
       </c>
       <c r="N6" t="n">
-        <v>394616.8385906023</v>
+        <v>394582.1006651666</v>
       </c>
       <c r="O6" t="n">
-        <v>394616.8385906023</v>
+        <v>394582.1006651666</v>
       </c>
       <c r="P6" t="n">
-        <v>394616.8385906025</v>
+        <v>394582.1006651666</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,16 +26790,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>345.9879565385031</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>122.6357058136421</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,10 +27546,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>145.8884512221533</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>182.408530361388</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>109.6520443064238</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>311.434413351468</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>125.0228863640959</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>65.34763052152979</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>159.6364462020373</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,10 +27907,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>64.3810122303681</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28065,13 +28065,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>94.0442761581327</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29703,7 +29703,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>-2.230967569652997e-12</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30381,7 +30381,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31291,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31312,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31361,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31373,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31467,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31476,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338212</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>200.3460366764694</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,10 +32549,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,22 +32789,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,22 +33026,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>369.1789913099994</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,22 +33974,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>248.0319961154042</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>630.2591755145964</v>
+        <v>522.0158803980277</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35018,16 +35018,16 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>402.8476067337647</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>395.9248450576184</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
@@ -35036,7 +35036,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35106,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394704</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>57.74979223202499</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>91.80490927281522</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,19 +36677,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899086</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,22 +37151,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>226.582746865555</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998946</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>110.1905571410452</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
